--- a/xlsx/country_comparison/radical_redistr_weight_vote_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_weight_vote_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -64,11 +67,12 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -451,22 +455,25 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.548749204972874</v>
+        <v>0.556007222541788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275778</v>
+        <v>0.612606004275779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.606865780027493</v>
+        <v>0.60685848380173</v>
       </c>
       <c r="E2" t="n">
-        <v>0.610837972566746</v>
+        <v>0.610908673368053</v>
       </c>
       <c r="F2" t="n">
         <v>0.723199355989802</v>
@@ -481,33 +488,36 @@
         <v>0.531219428146678</v>
       </c>
       <c r="J2" t="n">
-        <v>0.53189884096983</v>
+        <v>0.531962707015654</v>
       </c>
       <c r="K2" t="n">
-        <v>0.41505792432776</v>
+        <v>0.415138078795314</v>
       </c>
       <c r="L2" t="n">
+        <v>0.595756191953926</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.677827112481047</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.485247879419901</v>
+      <c r="N2" t="n">
+        <v>0.48531714887618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.488009346515533</v>
+        <v>0.50312291438834</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.561976126203119</v>
+        <v>0.561948424114003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.519959250748689</v>
+        <v>0.519922424594706</v>
       </c>
       <c r="F3" t="n">
         <v>0.539237089697176</v>
@@ -522,33 +532,36 @@
         <v>0.53429638847586</v>
       </c>
       <c r="J3" t="n">
-        <v>0.380325215640393</v>
+        <v>0.380404592337776</v>
       </c>
       <c r="K3" t="n">
-        <v>0.348454206493854</v>
+        <v>0.348498257657963</v>
       </c>
       <c r="L3" t="n">
+        <v>0.604399737467109</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.671355992475847</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.431037670119821</v>
+      <c r="N3" t="n">
+        <v>0.431006152599421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.710773440812668</v>
+        <v>0.710751335841921</v>
       </c>
       <c r="E4" t="n">
-        <v>0.695981035012071</v>
+        <v>0.696003924106409</v>
       </c>
       <c r="F4" t="n">
         <v>0.737965271621624</v>
@@ -563,33 +576,36 @@
         <v>0.666574918268333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.65293375135168</v>
+        <v>0.652980895956235</v>
       </c>
       <c r="K4" t="n">
-        <v>0.754784211339527</v>
+        <v>0.754892621650637</v>
       </c>
       <c r="L4" t="n">
+        <v>0.688615273248795</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.608619626364898</v>
+      <c r="N4" t="n">
+        <v>0.608689412107398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.582407081968796</v>
+        <v>0.609601586795904</v>
       </c>
       <c r="C5" t="n">
         <v>0.667387097439935</v>
       </c>
       <c r="D5" t="n">
-        <v>0.580559697437031</v>
+        <v>0.580532036636799</v>
       </c>
       <c r="E5" t="n">
-        <v>0.638762556354556</v>
+        <v>0.63875633973718</v>
       </c>
       <c r="F5" t="n">
         <v>0.749059397935025</v>
@@ -604,74 +620,78 @@
         <v>0.538916979845312</v>
       </c>
       <c r="J5" t="n">
-        <v>0.558083654667473</v>
+        <v>0.558155965173253</v>
       </c>
       <c r="K5" t="n">
-        <v>0.554433438527048</v>
+        <v>0.554455577170065</v>
       </c>
       <c r="L5" t="n">
+        <v>0.778963825426238</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.756844881931732</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.448016842200522</v>
+      <c r="N5" t="n">
+        <v>0.448128989999106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54627578656303</v>
+        <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.505678209373274</v>
+        <v>0.68447503664547</v>
       </c>
       <c r="E6" t="n">
-        <v>0.520407584754536</v>
+        <v>0.679242709384061</v>
       </c>
       <c r="F6" t="n">
-        <v>0.553810444165395</v>
+        <v>0.792515487565139</v>
       </c>
       <c r="G6" t="n">
-        <v>0.538249182222182</v>
+        <v>0.677577969433519</v>
       </c>
       <c r="H6" t="n">
-        <v>0.566137320948456</v>
+        <v>0.746395684069502</v>
       </c>
       <c r="I6" t="n">
-        <v>0.553406674652481</v>
+        <v>0.670549607279346</v>
       </c>
       <c r="J6" t="n">
-        <v>0.489162086630028</v>
+        <v>0.648965346480897</v>
       </c>
       <c r="K6" t="n">
-        <v>0.482155443961389</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.404576421408372</v>
-      </c>
+        <v>0.531016915460678</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.480727613719715</v>
+        <v>0.727098526374066</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.646544698767764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.364700740506257</v>
+        <v>0.364717906507653</v>
       </c>
       <c r="C7" t="n">
         <v>0.40721776360235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.410419941315739</v>
+        <v>0.41037218564678</v>
       </c>
       <c r="E7" t="n">
-        <v>0.376615870124619</v>
+        <v>0.376640297322738</v>
       </c>
       <c r="F7" t="n">
         <v>0.438569657841468</v>
@@ -686,31 +706,32 @@
         <v>0.388292136341869</v>
       </c>
       <c r="J7" t="n">
-        <v>0.320372381055563</v>
+        <v>0.320423008221701</v>
       </c>
       <c r="K7" t="n">
-        <v>0.208532013298491</v>
+        <v>0.208534721957305</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.336830098418183</v>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>0.336970942498412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.347856888878235</v>
+        <v>0.347853243460036</v>
       </c>
       <c r="C8" t="n">
         <v>0.389632627264691</v>
       </c>
       <c r="D8" t="n">
-        <v>0.344617131000065</v>
+        <v>0.344637035841507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.330025548635392</v>
+        <v>0.330038030870184</v>
       </c>
       <c r="F8" t="n">
         <v>0.541474107987616</v>
@@ -725,25 +746,26 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.285480314494605</v>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0.285582964276425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.414163491723958</v>
+        <v>0.410626908494325</v>
       </c>
       <c r="C9" t="n">
         <v>0.439007996245569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.313994421844003</v>
+        <v>0.313980111032844</v>
       </c>
       <c r="E9" t="n">
-        <v>0.439023584681288</v>
+        <v>0.439081145937391</v>
       </c>
       <c r="F9" t="n">
         <v>0.476354840470821</v>
@@ -758,16 +780,19 @@
         <v>0.440260307177303</v>
       </c>
       <c r="J9" t="n">
-        <v>0.398368634701305</v>
+        <v>0.398448398482951</v>
       </c>
       <c r="K9" t="n">
-        <v>0.309756452612022</v>
+        <v>0.309849031423241</v>
       </c>
       <c r="L9" t="n">
+        <v>0.389233362357354</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.662536527281334</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.379102474676689</v>
+      <c r="N9" t="n">
+        <v>0.378969990866226</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_weight_vote_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_weight_vote_positive.xlsx
@@ -464,10 +464,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556007222541788</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
         <v>0.60685848380173</v>
@@ -494,7 +494,7 @@
         <v>0.415138078795314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.595756191953926</v>
+        <v>0.599020579536134</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.50312291438834</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -538,7 +538,7 @@
         <v>0.348498257657963</v>
       </c>
       <c r="L3" t="n">
-        <v>0.604399737467109</v>
+        <v>0.605713809935328</v>
       </c>
       <c r="M3" t="n">
         <v>0.671355992475847</v>
@@ -552,43 +552,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.710751335841921</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.696003924106409</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.737965271621624</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.546666497937564</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.721638347547208</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.666574918268333</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.652980895956235</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.754892621650637</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688615273248795</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.713280127381035</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.608689412107398</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="5">
@@ -596,43 +596,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.609601586795904</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.667387097439935</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.580532036636799</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.63875633973718</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.749059397935025</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.731466745350337</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.710128809790465</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.538916979845312</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.558155965173253</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.554455577170065</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M5" t="n">
-        <v>0.756844881931732</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.448128989999106</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="6">
@@ -646,35 +646,35 @@
         <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68447503664547</v>
+        <v>0.703425024778734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.679242709384061</v>
+        <v>0.690418272415403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.792515487565139</v>
+        <v>0.817088824971887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.677577969433519</v>
+        <v>0.707832398863728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.746395684069502</v>
+        <v>0.743080145118413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.670549607279346</v>
+        <v>0.682786565268408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.648965346480897</v>
+        <v>0.629978960602202</v>
       </c>
       <c r="K6" t="n">
-        <v>0.531016915460678</v>
+        <v>0.559364498889858</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.727098526374066</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="N6" t="n">
-        <v>0.646544698767764</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="7">
@@ -688,33 +688,33 @@
         <v>0.40721776360235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41037218564678</v>
+        <v>0.433925894981486</v>
       </c>
       <c r="E7" t="n">
-        <v>0.376640297322738</v>
+        <v>0.380034556242257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.438569657841468</v>
+        <v>0.493153717901538</v>
       </c>
       <c r="G7" t="n">
-        <v>0.245046285790811</v>
+        <v>0.294240462496433</v>
       </c>
       <c r="H7" t="n">
-        <v>0.412435935523674</v>
+        <v>0.435945067636782</v>
       </c>
       <c r="I7" t="n">
-        <v>0.388292136341869</v>
+        <v>0.393859939620314</v>
       </c>
       <c r="J7" t="n">
-        <v>0.320423008221701</v>
+        <v>0.309382480278528</v>
       </c>
       <c r="K7" t="n">
-        <v>0.208534721957305</v>
+        <v>0.221879636941058</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.336970942498412</v>
+        <v>0.372714769461306</v>
       </c>
     </row>
     <row r="8">
@@ -728,27 +728,27 @@
         <v>0.389632627264691</v>
       </c>
       <c r="D8" t="n">
-        <v>0.344637035841507</v>
+        <v>0.330319367513297</v>
       </c>
       <c r="E8" t="n">
-        <v>0.330038030870184</v>
+        <v>0.336287925808747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.541474107987616</v>
+        <v>0.557635114819894</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.391565913028478</v>
+        <v>0.403966853457814</v>
       </c>
       <c r="I8" t="n">
-        <v>0.357922697953927</v>
+        <v>0.352147255041012</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.285582964276425</v>
+        <v>0.306378388289677</v>
       </c>
     </row>
     <row r="9">
@@ -756,43 +756,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.410626908494325</v>
+        <v>0.410629863862209</v>
       </c>
       <c r="C9" t="n">
         <v>0.439007996245569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.313980111032844</v>
+        <v>0.323193155043108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.439081145937391</v>
+        <v>0.444463951462934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.476354840470821</v>
+        <v>0.518235877111197</v>
       </c>
       <c r="G9" t="n">
-        <v>0.378195194728228</v>
+        <v>0.41082014424506</v>
       </c>
       <c r="H9" t="n">
-        <v>0.472874811326255</v>
+        <v>0.500549487362927</v>
       </c>
       <c r="I9" t="n">
-        <v>0.440260307177303</v>
+        <v>0.453356423772496</v>
       </c>
       <c r="J9" t="n">
-        <v>0.398448398482951</v>
+        <v>0.387974052023334</v>
       </c>
       <c r="K9" t="n">
-        <v>0.309849031423241</v>
+        <v>0.32098402394466</v>
       </c>
       <c r="L9" t="n">
-        <v>0.389233362357354</v>
+        <v>0.389828757171604</v>
       </c>
       <c r="M9" t="n">
-        <v>0.662536527281334</v>
+        <v>0.665815836537034</v>
       </c>
       <c r="N9" t="n">
-        <v>0.378969990866226</v>
+        <v>0.400110573948723</v>
       </c>
     </row>
   </sheetData>
